--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/0/Output_16_35.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/0/Output_16_35.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>55728.07664808959</v>
+        <v>11089887.25296982</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>55728.07664808959</v>
+        <v>11089887.25296982</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4803.124578683391</v>
+        <v>692779.1927282645</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4803.124578683391</v>
+        <v>692779.1927282645</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1342582742.370864</v>
+        <v>54958591.60546578</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>11275.1723709421</v>
+        <v>1247609.566183942</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>21610.54527208343</v>
+        <v>2348960.584291395</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>31945.91817322475</v>
+        <v>3450311.60239885</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>42758.49589476159</v>
+        <v>4565452.730715017</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>53419.67502873993</v>
+        <v>5667407.641006039</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>64080.85416271824</v>
+        <v>6769362.551297058</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>74742.03329669655</v>
+        <v>7871317.461588074</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>85403.21243067479</v>
+        <v>8973272.371879091</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>96080.59737039343</v>
+        <v>10046945.60963566</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>106626.1392042024</v>
+        <v>11148900.51992667</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>117171.6810380113</v>
+        <v>12250855.4302177</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>127281.6738858059</v>
+        <v>13330958.7420664</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>137490.498248752</v>
+        <v>14430729.52543026</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>148271.1290163599</v>
+        <v>15445043.30405396</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>159314.5053520844</v>
+        <v>16426175.44054248</v>
       </c>
     </row>
   </sheetData>
@@ -27037,10 +27037,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27052,13 +27052,13 @@
         <v>7</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
         <v>343</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27144,7 +27144,7 @@
         <v>378</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27153,10 +27153,10 @@
         <v>156</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
